--- a/操作系统原理.xlsx
+++ b/操作系统原理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="part!_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>⑴</t>
   </si>
@@ -299,6 +299,122 @@
   <si>
     <t>Windows：</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIX：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux的内核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照时间分类：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑴批处理操作系统：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一堆相同的数据进行相同的操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节，第六节：操作系统的分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑵分时操作系统：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个网吧的主机，加上一堆显示器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑶通用操作系统：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑷实时操作系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>把分时操作系统和批处理操作系统结合，对实时性要求不是很严格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对实时性要求非常高</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑸⑹⑺⑻⑼⑽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑸个人计算机系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单，界面友好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑹网络操作系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须支持网络协议，有网络模块，通信安全</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑺分布式操作系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多核的就是这种</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个同意的系统，允许多个核心共同完成任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统能像单核心的CPU一样控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑻嵌入式操作系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需赘述，老本行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七节：CPU处理器状态状态怎么转换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,6 +528,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>337388</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>105715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="343170" y="10214043"/>
+          <a:ext cx="8916644" cy="5277587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>312813</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>22257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="341313" y="16125031"/>
+          <a:ext cx="11917438" cy="5915851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AE145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" topLeftCell="A143" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2795,19 +2992,255 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C129" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C131" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C133" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B134" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C135" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C137" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C139" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C141" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C142" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+    </row>
+    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+      <c r="AC143"/>
+      <c r="AD143"/>
+    </row>
+    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+    </row>
+    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B145"/>
+      <c r="C145" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE66"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2815,7 +3248,7 @@
     <col min="1" max="16384" width="4.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:31" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="23" x14ac:dyDescent="0.25">
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -2831,14 +3264,14 @@
         <v>2</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -2855,130 +3288,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23"/>
-      <c r="C23"/>
+      <c r="C23" s="6"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -4343,6 +4660,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
